--- a/today.xlsx
+++ b/today.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lionellloh/PycharmProjects/windy-automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AD51C4-F459-F74A-BF32-25C85FA5F6DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20640" windowHeight="15000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13 May" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,14 @@
     <sheet name="16 May" sheetId="4" r:id="rId4"/>
     <sheet name="17 May" sheetId="5" r:id="rId5"/>
     <sheet name="18 May" sheetId="6" r:id="rId6"/>
-    <sheet name="19 May" sheetId="7" r:id="rId7"/>
+    <sheet name="19 May" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="21">
   <si>
     <t>5 am direction</t>
   </si>
@@ -88,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +158,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +244,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +296,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -487,7 +537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -528,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -569,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>600</v>
       </c>
@@ -610,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>750</v>
       </c>
@@ -651,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>900</v>
       </c>
@@ -692,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -733,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -774,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -815,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4200</v>
       </c>
@@ -856,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5500</v>
       </c>
@@ -897,7 +947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -938,7 +988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9000</v>
       </c>
@@ -979,7 +1029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -1020,7 +1070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11700</v>
       </c>
@@ -1061,7 +1111,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13500</v>
       </c>
@@ -1108,14 +1158,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -1197,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -1238,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>600</v>
       </c>
@@ -1279,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>750</v>
       </c>
@@ -1320,7 +1370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>900</v>
       </c>
@@ -1361,7 +1411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -1402,7 +1452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -1443,7 +1493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -1484,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4200</v>
       </c>
@@ -1525,7 +1575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5500</v>
       </c>
@@ -1566,7 +1616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -1607,7 +1657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9000</v>
       </c>
@@ -1648,7 +1698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -1689,7 +1739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11700</v>
       </c>
@@ -1730,7 +1780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13500</v>
       </c>
@@ -1777,14 +1827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -1866,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -1907,7 +1957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>600</v>
       </c>
@@ -1948,7 +1998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>750</v>
       </c>
@@ -1989,7 +2039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>900</v>
       </c>
@@ -2030,7 +2080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -2071,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -2112,7 +2162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -2153,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4200</v>
       </c>
@@ -2194,7 +2244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5500</v>
       </c>
@@ -2235,7 +2285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -2276,7 +2326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9000</v>
       </c>
@@ -2317,7 +2367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -2358,7 +2408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11700</v>
       </c>
@@ -2399,7 +2449,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13500</v>
       </c>
@@ -2446,14 +2496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2494,7 +2544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -2535,7 +2585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -2576,7 +2626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>600</v>
       </c>
@@ -2617,7 +2667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>750</v>
       </c>
@@ -2658,7 +2708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>900</v>
       </c>
@@ -2699,7 +2749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -2740,7 +2790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -2781,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -2822,7 +2872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4200</v>
       </c>
@@ -2863,7 +2913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5500</v>
       </c>
@@ -2904,7 +2954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -2945,7 +2995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9000</v>
       </c>
@@ -2986,7 +3036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -3027,7 +3077,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11700</v>
       </c>
@@ -3068,7 +3118,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13500</v>
       </c>
@@ -3115,14 +3165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3163,7 +3213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -3204,7 +3254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -3245,7 +3295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>600</v>
       </c>
@@ -3286,7 +3336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>750</v>
       </c>
@@ -3327,7 +3377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>900</v>
       </c>
@@ -3368,7 +3418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -3409,7 +3459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -3450,7 +3500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -3491,7 +3541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4200</v>
       </c>
@@ -3532,7 +3582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5500</v>
       </c>
@@ -3573,7 +3623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -3614,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9000</v>
       </c>
@@ -3655,7 +3705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -3696,7 +3746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11700</v>
       </c>
@@ -3737,7 +3787,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13500</v>
       </c>
@@ -3784,14 +3834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3832,7 +3882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -3873,7 +3923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -3914,7 +3964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>600</v>
       </c>
@@ -3955,7 +4005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>750</v>
       </c>
@@ -3996,7 +4046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>900</v>
       </c>
@@ -4037,7 +4087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -4078,7 +4128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -4119,7 +4169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -4160,7 +4210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4200</v>
       </c>
@@ -4201,7 +4251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5500</v>
       </c>
@@ -4242,7 +4292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -4283,7 +4333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9000</v>
       </c>
@@ -4324,7 +4374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -4365,7 +4415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11700</v>
       </c>
@@ -4406,7 +4456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13500</v>
       </c>
@@ -4453,14 +4503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92656F2-1F00-044D-8AED-57138F97842C}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="A1:M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4482,8 +4538,26 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -4505,8 +4579,26 @@
       <c r="G2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -4528,8 +4620,26 @@
       <c r="G3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>600</v>
       </c>
@@ -4551,8 +4661,26 @@
       <c r="G4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>750</v>
       </c>
@@ -4574,8 +4702,26 @@
       <c r="G5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>900</v>
       </c>
@@ -4597,8 +4743,26 @@
       <c r="G6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -4620,8 +4784,26 @@
       <c r="G7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2000</v>
       </c>
@@ -4643,8 +4825,26 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
@@ -4666,8 +4866,26 @@
       <c r="G9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4200</v>
       </c>
@@ -4689,8 +4907,26 @@
       <c r="G10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5500</v>
       </c>
@@ -4712,8 +4948,26 @@
       <c r="G11">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7000</v>
       </c>
@@ -4735,8 +4989,26 @@
       <c r="G12">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9000</v>
       </c>
@@ -4758,8 +5030,26 @@
       <c r="G13">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -4781,8 +5071,26 @@
       <c r="G14">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11700</v>
       </c>
@@ -4804,8 +5112,26 @@
       <c r="G15">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>76</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13500</v>
       </c>
@@ -4827,8 +5153,27 @@
       <c r="G16">
         <v>68</v>
       </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>